--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -635,6 +635,22 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png")</f>
         <v/>
       </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>45117</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>45119</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>45119</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45119</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>45119</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45119</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>45119</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45120</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45121</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45121</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45127</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>45128</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>45128</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45132</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45132</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>45132</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>45133</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45133</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45135</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45135</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>45135</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45135</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45135</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>45117</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>45119</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>45119</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45119</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>45119</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45119</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>45119</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45120</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45121</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45121</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45127</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>45128</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>45128</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45132</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45132</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>45132</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>45133</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45133</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45135</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45135</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>45135</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45135</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45135</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>45117</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>45119</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>45119</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45119</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>45119</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45119</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>45119</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45120</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45121</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45121</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45127</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>45128</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>45128</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45132</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45132</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>45132</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>45133</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45133</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45135</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45135</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>45135</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45135</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45135</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx"; "A 30703-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png; "A 30703-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx; "A 30703-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx; "A 30703-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx; "A 30703-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx; "A 30703-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -632,23 +632,23 @@
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png"; "A 30703-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx"; "A 30703-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx"; "A 30703-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx"; "A 30703-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx"; "A 30703-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx"; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png"; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx"; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx"; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx"; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx"; "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -647,9 +647,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx")</f>
-        <v/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx"; "A 30703-2023")</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,29 +628,28 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx, "A 30703-2023"")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx", "A 30703-2023")</f>
         <v/>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx"; "A 30703-2023")</t>
-        </is>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx", "A 30703-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -663,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -725,7 +724,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -787,7 +786,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -849,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -906,7 +905,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -963,7 +962,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1020,7 +1019,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1077,7 +1076,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1139,7 +1138,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1201,7 +1200,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1263,7 +1262,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1320,7 +1319,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1382,7 +1381,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1444,7 +1443,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1501,7 +1500,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1558,7 +1557,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1615,7 +1614,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1672,7 +1671,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1734,7 +1733,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1791,7 +1790,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1848,7 +1847,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1905,7 +1904,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1962,7 +1961,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2019,7 +2018,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2076,7 +2075,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2133,7 +2132,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2195,7 +2194,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2257,7 +2256,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2314,7 +2313,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2376,7 +2375,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2433,7 +2432,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2490,7 +2489,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2547,7 +2546,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2604,7 +2603,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2661,7 +2660,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2718,7 +2717,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2780,7 +2779,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2837,7 +2836,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2899,7 +2898,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2961,7 +2960,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3023,7 +3022,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3085,7 +3084,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3142,7 +3141,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3199,7 +3198,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3256,7 +3255,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3318,7 +3317,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3375,7 +3374,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3432,7 +3431,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3494,7 +3493,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3551,7 +3550,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3608,7 +3607,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3670,7 +3669,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3727,7 +3726,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3784,7 +3783,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3846,7 +3845,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3903,7 +3902,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3965,7 +3964,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4022,7 +4021,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4079,7 +4078,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4141,7 +4140,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4203,7 +4202,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4260,7 +4259,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4317,7 +4316,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4374,7 +4373,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4431,7 +4430,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4493,7 +4492,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4550,7 +4549,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4607,7 +4606,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4664,7 +4663,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4726,7 +4725,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4783,7 +4782,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4840,7 +4839,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4897,7 +4896,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4954,7 +4953,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5011,7 +5010,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5073,7 +5072,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5135,7 +5134,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5197,7 +5196,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5254,7 +5253,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5311,7 +5310,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5373,7 +5372,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5435,7 +5434,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5497,7 +5496,7 @@
         <v>45117</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5554,7 +5553,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5611,7 +5610,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5668,7 +5667,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5725,7 +5724,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5782,7 +5781,7 @@
         <v>45119</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5839,7 +5838,7 @@
         <v>45119</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5901,7 +5900,7 @@
         <v>45119</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5963,7 +5962,7 @@
         <v>45119</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6025,7 +6024,7 @@
         <v>45119</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6087,7 +6086,7 @@
         <v>45119</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6149,7 +6148,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6211,7 +6210,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6273,7 +6272,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6330,7 +6329,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6387,7 +6386,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6449,7 +6448,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6511,7 +6510,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6573,7 +6572,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6635,7 +6634,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6697,7 +6696,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6754,7 +6753,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6811,7 +6810,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6873,7 +6872,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6935,7 +6934,7 @@
         <v>45120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6992,7 +6991,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7049,7 +7048,7 @@
         <v>45120</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7106,7 +7105,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7168,7 +7167,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7230,7 +7229,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7292,7 +7291,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7354,7 +7353,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7416,7 +7415,7 @@
         <v>45121</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7478,7 +7477,7 @@
         <v>45121</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7540,7 +7539,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7602,7 +7601,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7664,7 +7663,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7721,7 +7720,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7778,7 +7777,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7835,7 +7834,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7897,7 +7896,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7954,7 +7953,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8016,7 +8015,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8078,7 +8077,7 @@
         <v>45125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8135,7 +8134,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8192,7 +8191,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8249,7 +8248,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8306,7 +8305,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8363,7 +8362,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8420,7 +8419,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8477,7 +8476,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8534,7 +8533,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8591,7 +8590,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8648,7 +8647,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8705,7 +8704,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8762,7 +8761,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8824,7 +8823,7 @@
         <v>45127</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8886,7 +8885,7 @@
         <v>45128</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8943,7 +8942,7 @@
         <v>45128</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9000,7 +8999,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9062,7 +9061,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9124,7 +9123,7 @@
         <v>45132</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9186,7 +9185,7 @@
         <v>45132</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9243,7 +9242,7 @@
         <v>45132</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9305,7 +9304,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9362,7 +9361,7 @@
         <v>45133</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9424,7 +9423,7 @@
         <v>45133</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9486,7 +9485,7 @@
         <v>45135</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9548,7 +9547,7 @@
         <v>45135</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9605,7 +9604,7 @@
         <v>45135</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9667,7 +9666,7 @@
         <v>45135</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9724,7 +9723,7 @@
         <v>45135</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9786,7 +9785,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx, "A 30703-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="T2">

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>45117</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>45119</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>45119</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45119</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>45119</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45119</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>45119</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45120</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45121</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45121</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45127</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>45128</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>45128</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45132</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45132</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>45132</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>45133</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45133</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45135</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45135</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>45135</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45135</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45135</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>45117</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>45119</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>45119</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45119</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>45119</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45119</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>45119</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45120</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45121</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45121</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45127</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>45128</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>45128</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45132</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45132</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>45132</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>45133</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45133</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45135</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45135</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>45135</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45135</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45135</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>45117</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>45119</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>45119</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45119</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>45119</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45119</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>45119</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45120</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45121</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45121</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45127</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>45128</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>45128</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45132</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45132</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>45132</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>45133</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45133</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45135</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45135</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>45135</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45135</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45135</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/artfynd/A 30703-2023.xlsx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/artfynd/A 30703-2023.xlsx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/kartor/A 30703-2023.png", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/kartor/A 30703-2023.png", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomål/A 30703-2023.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomål/A 30703-2023.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/klagomålsmail/A 30703-2023.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomålsmail/A 30703-2023.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsyn/A 30703-2023.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/tillsyn/A 30703-2023.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_SKELLEFTEA/tillsynsmail/A 30703-2023.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/tillsynsmail/A 30703-2023.docx", "A 30703-2023")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>45117</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>45119</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>45119</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45119</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>45119</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45119</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>45119</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45120</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45121</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45121</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45127</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>45128</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>45128</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45132</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45132</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>45132</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>45133</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45133</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45135</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45135</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>45135</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45135</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45135</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/artfynd/A 30703-2023.xlsx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/artfynd/A 30703-2023 artfynd.xlsx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/kartor/A 30703-2023.png", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/kartor/A 30703-2023 karta.png", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomål/A 30703-2023.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomål/A 30703-2023 fsc-klagomål.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomålsmail/A 30703-2023.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomålsmail/A 30703-2023 fsc-klagomål mail.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/tillsyn/A 30703-2023.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/tillsyn/A 30703-2023 tillsynsbegäran.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/tillsynsmail/A 30703-2023.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/ti,llsynsmail/A 30703-2023 tillsynsbegäran mail.docx", "A 30703-2023")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>45117</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>45119</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>45119</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45119</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>45119</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45119</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>45119</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45120</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45121</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45121</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45127</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>45128</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>45128</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45132</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45132</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>45132</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>45133</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45133</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45135</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45135</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>45135</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45135</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45135</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -636,11 +636,11 @@
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomål/A 30703-2023 fsc-klagomål.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomål/A 30703-2023 FSC-klagomål.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomålsmail/A 30703-2023 fsc-klagomål mail.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/klagomålsmail/A 30703-2023 FSC-klagomål mail.docx", "A 30703-2023")</f>
         <v/>
       </c>
       <c r="X2">
@@ -648,7 +648,7 @@
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/ti,llsynsmail/A 30703-2023 tillsynsbegäran mail.docx", "A 30703-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2482/tillsynsmail/A 30703-2023 tillsynsbegäran mail.docx", "A 30703-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>45117</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>45119</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>45119</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45119</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>45119</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45119</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>45119</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45120</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45121</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45121</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45127</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>45128</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>45128</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45132</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45132</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>45132</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>45133</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45133</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45135</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45135</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>45135</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45135</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45135</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>45117</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>45119</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>45119</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45119</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>45119</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45119</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>45119</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45120</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45121</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45121</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45127</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>45128</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>45128</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45132</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45132</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>45132</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>45133</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45133</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45135</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45135</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>45135</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45135</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45135</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>45117</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>45119</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>45119</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45119</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>45119</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45119</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>45119</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45120</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45121</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45121</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45127</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>45128</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>45128</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45132</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45132</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>45132</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>45133</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45133</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45135</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45135</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>45135</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45135</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45135</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>45117</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>45119</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>45119</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45119</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>45119</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45119</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>45119</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45120</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45121</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45121</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45127</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>45128</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>45128</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45132</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45132</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>45132</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>45133</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45133</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45135</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45135</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>45135</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45135</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45135</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>

--- a/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
+++ b/Logging_VASTERBOTTENS_LAN/Översikt VÄSTERBOTTENS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45112</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -724,7 +724,7 @@
         <v>45108</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -962,7 +962,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1076,7 +1076,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1138,7 +1138,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1200,7 +1200,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1262,7 +1262,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1319,7 +1319,7 @@
         <v>45111</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>45111</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>45111</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1500,7 +1500,7 @@
         <v>45111</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
         <v>45111</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1614,7 +1614,7 @@
         <v>45111</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1671,7 +1671,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1733,7 +1733,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45111</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         <v>45111</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1904,7 +1904,7 @@
         <v>45111</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1961,7 +1961,7 @@
         <v>45111</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2018,7 +2018,7 @@
         <v>45112</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2075,7 +2075,7 @@
         <v>45112</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>45112</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2194,7 +2194,7 @@
         <v>45112</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2256,7 +2256,7 @@
         <v>45112</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2313,7 +2313,7 @@
         <v>45112</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2375,7 +2375,7 @@
         <v>45112</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         <v>45112</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
         <v>45112</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2546,7 +2546,7 @@
         <v>45112</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2603,7 +2603,7 @@
         <v>45112</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2660,7 +2660,7 @@
         <v>45112</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>45112</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2779,7 +2779,7 @@
         <v>45112</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2836,7 +2836,7 @@
         <v>45112</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2898,7 +2898,7 @@
         <v>45113</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2960,7 +2960,7 @@
         <v>45113</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3022,7 +3022,7 @@
         <v>45113</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>45113</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         <v>45113</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>45113</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3255,7 +3255,7 @@
         <v>45113</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3317,7 +3317,7 @@
         <v>45113</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3374,7 +3374,7 @@
         <v>45113</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3431,7 +3431,7 @@
         <v>45113</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3493,7 +3493,7 @@
         <v>45113</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3550,7 +3550,7 @@
         <v>45113</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         <v>45113</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3669,7 +3669,7 @@
         <v>45113</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3726,7 +3726,7 @@
         <v>45113</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3783,7 +3783,7 @@
         <v>45113</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>45113</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3902,7 +3902,7 @@
         <v>45113</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3964,7 +3964,7 @@
         <v>45113</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4021,7 +4021,7 @@
         <v>45113</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4078,7 +4078,7 @@
         <v>45114</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4140,7 +4140,7 @@
         <v>45114</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         <v>45114</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4259,7 +4259,7 @@
         <v>45114</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4316,7 +4316,7 @@
         <v>45114</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>45114</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4430,7 +4430,7 @@
         <v>45114</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4492,7 +4492,7 @@
         <v>45114</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4549,7 +4549,7 @@
         <v>45114</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4606,7 +4606,7 @@
         <v>45114</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4663,7 +4663,7 @@
         <v>45114</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -4725,7 +4725,7 @@
         <v>45114</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -4782,7 +4782,7 @@
         <v>45114</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -4839,7 +4839,7 @@
         <v>45114</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -4896,7 +4896,7 @@
         <v>45114</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -4953,7 +4953,7 @@
         <v>45116</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5010,7 +5010,7 @@
         <v>45117</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5072,7 +5072,7 @@
         <v>45117</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5134,7 +5134,7 @@
         <v>45117</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>45117</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5253,7 +5253,7 @@
         <v>45117</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5310,7 +5310,7 @@
         <v>45117</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>45117</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5434,7 +5434,7 @@
         <v>45117</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         <v>45117</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5553,7 +5553,7 @@
         <v>45118</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5610,7 +5610,7 @@
         <v>45118</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5667,7 +5667,7 @@
         <v>45118</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5724,7 +5724,7 @@
         <v>45118</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -5781,7 +5781,7 @@
         <v>45119</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -5838,7 +5838,7 @@
         <v>45119</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -5900,7 +5900,7 @@
         <v>45119</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -5962,7 +5962,7 @@
         <v>45119</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6024,7 +6024,7 @@
         <v>45119</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6086,7 +6086,7 @@
         <v>45119</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6148,7 +6148,7 @@
         <v>45119</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6210,7 +6210,7 @@
         <v>45119</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6272,7 +6272,7 @@
         <v>45119</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6329,7 +6329,7 @@
         <v>45119</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6386,7 +6386,7 @@
         <v>45119</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6448,7 +6448,7 @@
         <v>45119</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6510,7 +6510,7 @@
         <v>45119</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6572,7 +6572,7 @@
         <v>45119</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6634,7 +6634,7 @@
         <v>45119</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6696,7 +6696,7 @@
         <v>45120</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6753,7 +6753,7 @@
         <v>45120</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -6810,7 +6810,7 @@
         <v>45120</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -6872,7 +6872,7 @@
         <v>45120</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -6934,7 +6934,7 @@
         <v>45120</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -6991,7 +6991,7 @@
         <v>45120</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7048,7 +7048,7 @@
         <v>45120</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7105,7 +7105,7 @@
         <v>45121</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7167,7 +7167,7 @@
         <v>45121</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>45121</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7291,7 +7291,7 @@
         <v>45121</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
         <v>45121</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7415,7 +7415,7 @@
         <v>45121</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7477,7 +7477,7 @@
         <v>45121</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7539,7 +7539,7 @@
         <v>45122</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7601,7 +7601,7 @@
         <v>45122</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>45123</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>45124</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>45124</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>45124</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -7896,7 +7896,7 @@
         <v>45124</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -7953,7 +7953,7 @@
         <v>45124</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8015,7 +8015,7 @@
         <v>45124</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8077,7 +8077,7 @@
         <v>45125</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8134,7 +8134,7 @@
         <v>45125</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8191,7 +8191,7 @@
         <v>45125</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8248,7 +8248,7 @@
         <v>45125</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8305,7 +8305,7 @@
         <v>45125</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8362,7 +8362,7 @@
         <v>45125</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8419,7 +8419,7 @@
         <v>45125</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8476,7 +8476,7 @@
         <v>45125</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8533,7 +8533,7 @@
         <v>45125</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8590,7 +8590,7 @@
         <v>45126</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8647,7 +8647,7 @@
         <v>45126</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8704,7 +8704,7 @@
         <v>45126</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8761,7 +8761,7 @@
         <v>45127</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -8823,7 +8823,7 @@
         <v>45127</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -8885,7 +8885,7 @@
         <v>45128</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -8942,7 +8942,7 @@
         <v>45128</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -8999,7 +8999,7 @@
         <v>45131</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>45131</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>45132</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9185,7 +9185,7 @@
         <v>45132</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9242,7 +9242,7 @@
         <v>45132</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9304,7 +9304,7 @@
         <v>45132</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9361,7 +9361,7 @@
         <v>45133</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9423,7 +9423,7 @@
         <v>45133</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>45135</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9547,7 +9547,7 @@
         <v>45135</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9604,7 +9604,7 @@
         <v>45135</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9666,7 +9666,7 @@
         <v>45135</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9723,7 +9723,7 @@
         <v>45135</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9785,7 +9785,7 @@
         <v>45138</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
